--- a/cart_report.xlsx
+++ b/cart_report.xlsx
@@ -29,13 +29,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Margot Pillbox hat</t>
+    <t>Le Artichaut bucket hat</t>
   </si>
   <si>
-    <t>136</t>
+    <t>121</t>
   </si>
   <si>
-    <t>$136.00</t>
+    <t>$121.00</t>
   </si>
   <si>
     <t>PASS</t>
@@ -44,19 +44,19 @@
     <t>Quiver Clip shoulder bag</t>
   </si>
   <si>
-    <t>1556</t>
+    <t>1561</t>
   </si>
   <si>
-    <t>$1,556.00</t>
+    <t>$1,561.00</t>
   </si>
   <si>
     <t>perforated sleeveless shirt</t>
   </si>
   <si>
-    <t>1594</t>
+    <t>1600</t>
   </si>
   <si>
-    <t>$1,594.00</t>
+    <t>$1,600.00</t>
   </si>
 </sst>
 </file>

--- a/cart_report.xlsx
+++ b/cart_report.xlsx
@@ -29,34 +29,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Le Artichaut bucket hat</t>
+    <t>crystal embellishment bracelet</t>
   </si>
   <si>
-    <t>121</t>
+    <t>358</t>
   </si>
   <si>
-    <t>$121.00</t>
+    <t>$358.00</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Quiver Clip shoulder bag</t>
+    <t>rectangle frame glasses</t>
   </si>
   <si>
-    <t>1561</t>
+    <t>437</t>
   </si>
   <si>
-    <t>$1,561.00</t>
+    <t>$437.00</t>
   </si>
   <si>
-    <t>perforated sleeveless shirt</t>
+    <t>rear-zip square-toe boots</t>
   </si>
   <si>
-    <t>1600</t>
+    <t>753</t>
   </si>
   <si>
-    <t>$1,600.00</t>
+    <t>$753.00</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="7.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.4140625" customWidth="true" bestFit="true"/>
